--- a/team_specific_matrix/Anderson (SC)_A.xlsx
+++ b/team_specific_matrix/Anderson (SC)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.4782608695652174</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3137254901960784</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1513,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
   </sheetData>
